--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll3-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll3-Notch4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H2">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I2">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J2">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N2">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q2">
-        <v>24.687676878681</v>
+        <v>98.41554608442134</v>
       </c>
       <c r="R2">
-        <v>222.189091908129</v>
+        <v>885.739914759792</v>
       </c>
       <c r="S2">
-        <v>0.3402121621084784</v>
+        <v>0.5103506570692996</v>
       </c>
       <c r="T2">
-        <v>0.3402121621084784</v>
+        <v>0.5103506570692997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H3">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I3">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J3">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q3">
-        <v>1.173454210263333</v>
+        <v>2.296270243391111</v>
       </c>
       <c r="R3">
-        <v>10.56108789237</v>
+        <v>20.66643219052</v>
       </c>
       <c r="S3">
-        <v>0.01617095832754253</v>
+        <v>0.01190770233107349</v>
       </c>
       <c r="T3">
-        <v>0.01617095832754253</v>
+        <v>0.01190770233107349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H4">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I4">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J4">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N4">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q4">
-        <v>1.220314419040667</v>
+        <v>3.223192471493334</v>
       </c>
       <c r="R4">
-        <v>10.982829771366</v>
+        <v>29.00873224344</v>
       </c>
       <c r="S4">
-        <v>0.01681672232645319</v>
+        <v>0.01671441617848047</v>
       </c>
       <c r="T4">
-        <v>0.01681672232645319</v>
+        <v>0.01671441617848048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H5">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I5">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J5">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N5">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O5">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P5">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q5">
-        <v>0.8781585252270002</v>
+        <v>1.795792532724889</v>
       </c>
       <c r="R5">
-        <v>7.903426727043001</v>
+        <v>16.162132794524</v>
       </c>
       <c r="S5">
-        <v>0.01210159270998335</v>
+        <v>0.009312389510597489</v>
       </c>
       <c r="T5">
-        <v>0.01210159270998335</v>
+        <v>0.009312389510597489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H6">
         <v>2.877521</v>
       </c>
       <c r="I6">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J6">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N6">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q6">
-        <v>28.794929651413</v>
+        <v>58.66008034157733</v>
       </c>
       <c r="R6">
-        <v>259.154366862717</v>
+        <v>527.9407230741959</v>
       </c>
       <c r="S6">
-        <v>0.3968127630076203</v>
+        <v>0.3041918857045371</v>
       </c>
       <c r="T6">
-        <v>0.3968127630076203</v>
+        <v>0.3041918857045371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H7">
         <v>2.877521</v>
       </c>
       <c r="I7">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J7">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q7">
         <v>1.368680074667778</v>
@@ -883,10 +883,10 @@
         <v>12.31812067201</v>
       </c>
       <c r="S7">
-        <v>0.01886129706435125</v>
+        <v>0.007097524763264291</v>
       </c>
       <c r="T7">
-        <v>0.01886129706435126</v>
+        <v>0.007097524763264291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H8">
         <v>2.877521</v>
       </c>
       <c r="I8">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J8">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N8">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q8">
-        <v>1.423336347990889</v>
+        <v>1.921167303913333</v>
       </c>
       <c r="R8">
-        <v>12.810027131918</v>
+        <v>17.29050573522</v>
       </c>
       <c r="S8">
-        <v>0.0196144958773228</v>
+        <v>0.009962541843248764</v>
       </c>
       <c r="T8">
-        <v>0.0196144958773228</v>
+        <v>0.009962541843248764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H9">
         <v>2.877521</v>
       </c>
       <c r="I9">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J9">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N9">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O9">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P9">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q9">
-        <v>1.024256477471</v>
+        <v>1.070372907915222</v>
       </c>
       <c r="R9">
-        <v>9.218308297239002</v>
+        <v>9.633356171237001</v>
       </c>
       <c r="S9">
-        <v>0.01411491702789333</v>
+        <v>0.005550601897744097</v>
       </c>
       <c r="T9">
-        <v>0.01411491702789333</v>
+        <v>0.005550601897744097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>0.411586</v>
       </c>
       <c r="I10">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J10">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N10">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q10">
-        <v>4.118680598858</v>
+        <v>8.390440183570666</v>
       </c>
       <c r="R10">
-        <v>37.068125389722</v>
+        <v>75.513961652136</v>
       </c>
       <c r="S10">
-        <v>0.05675808373779179</v>
+        <v>0.04351006351285972</v>
       </c>
       <c r="T10">
-        <v>0.05675808373779179</v>
+        <v>0.04351006351285973</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.411586</v>
       </c>
       <c r="I11">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J11">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.28081</v>
       </c>
       <c r="O11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q11">
-        <v>0.1957690516288888</v>
+        <v>0.1957690516288889</v>
       </c>
       <c r="R11">
         <v>1.76192146466</v>
       </c>
       <c r="S11">
-        <v>0.002697824208243162</v>
+        <v>0.001015193921160922</v>
       </c>
       <c r="T11">
-        <v>0.002697824208243163</v>
+        <v>0.001015193921160922</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>0.411586</v>
       </c>
       <c r="I12">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J12">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N12">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q12">
-        <v>0.2035868075764444</v>
+        <v>0.2747940209466667</v>
       </c>
       <c r="R12">
-        <v>1.832281268188</v>
+        <v>2.47314618852</v>
       </c>
       <c r="S12">
-        <v>0.002805557943856459</v>
+        <v>0.001424991423901124</v>
       </c>
       <c r="T12">
-        <v>0.002805557943856459</v>
+        <v>0.001424991423901124</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>0.411586</v>
       </c>
       <c r="I13">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J13">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N13">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O13">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P13">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q13">
-        <v>0.146504448286</v>
+        <v>0.1531007084491111</v>
       </c>
       <c r="R13">
-        <v>1.318540034574</v>
+        <v>1.377906376042</v>
       </c>
       <c r="S13">
-        <v>0.002018926096401209</v>
+        <v>0.0007939299253367403</v>
       </c>
       <c r="T13">
-        <v>0.002018926096401209</v>
+        <v>0.0007939299253367403</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H14">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I14">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J14">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N14">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O14">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P14">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q14">
-        <v>6.472382486135</v>
+        <v>14.03094033273067</v>
       </c>
       <c r="R14">
-        <v>58.251442375215</v>
+        <v>126.278462994576</v>
       </c>
       <c r="S14">
-        <v>0.08919361876056292</v>
+        <v>0.07275984235221081</v>
       </c>
       <c r="T14">
-        <v>0.08919361876056291</v>
+        <v>0.07275984235221082</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H15">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I15">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J15">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.28081</v>
       </c>
       <c r="O15">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P15">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q15">
-        <v>0.3076451671055555</v>
+        <v>0.3273754203955556</v>
       </c>
       <c r="R15">
-        <v>2.76880650395</v>
+        <v>2.94637878356</v>
       </c>
       <c r="S15">
-        <v>0.004239549471485028</v>
+        <v>0.001697661269530437</v>
       </c>
       <c r="T15">
-        <v>0.004239549471485028</v>
+        <v>0.001697661269530437</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H16">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I16">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J16">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N16">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O16">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P16">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q16">
-        <v>0.3199305350677779</v>
+        <v>0.4595251771466667</v>
       </c>
       <c r="R16">
-        <v>2.879374815610001</v>
+        <v>4.13572659432</v>
       </c>
       <c r="S16">
-        <v>0.004408849791529932</v>
+        <v>0.002382946449288775</v>
       </c>
       <c r="T16">
-        <v>0.004408849791529931</v>
+        <v>0.002382946449288776</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H17">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I17">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J17">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N17">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O17">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P17">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q17">
-        <v>0.230227327045</v>
+        <v>0.2560231475524445</v>
       </c>
       <c r="R17">
-        <v>2.072045943405</v>
+        <v>2.304208327972</v>
       </c>
       <c r="S17">
-        <v>0.00317268154048442</v>
+        <v>0.001327651847465828</v>
       </c>
       <c r="T17">
-        <v>0.003172681540484419</v>
+        <v>0.001327651847465828</v>
       </c>
     </row>
   </sheetData>
